--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N2">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O2">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P2">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q2">
-        <v>1106.002360287606</v>
+        <v>110.69977033406</v>
       </c>
       <c r="R2">
-        <v>9954.021242588455</v>
+        <v>996.29793300654</v>
       </c>
       <c r="S2">
-        <v>0.2186995371260436</v>
+        <v>0.04998463291922958</v>
       </c>
       <c r="T2">
-        <v>0.2186995371260436</v>
+        <v>0.04998463291922958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H3">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I3">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J3">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>368.169731</v>
       </c>
       <c r="O3">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P3">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q3">
-        <v>929.380301653062</v>
+        <v>729.5872291334599</v>
       </c>
       <c r="R3">
-        <v>8364.422714877559</v>
+        <v>6566.285062201139</v>
       </c>
       <c r="S3">
-        <v>0.1837745099682543</v>
+        <v>0.3294329312585154</v>
       </c>
       <c r="T3">
-        <v>0.1837745099682543</v>
+        <v>0.3294329312585154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H4">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I4">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J4">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N4">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O4">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P4">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q4">
-        <v>239.16915377584</v>
+        <v>196.01318798912</v>
       </c>
       <c r="R4">
-        <v>2152.52238398256</v>
+        <v>1764.11869190208</v>
       </c>
       <c r="S4">
-        <v>0.04729301229700991</v>
+        <v>0.08850648216701471</v>
       </c>
       <c r="T4">
-        <v>0.04729301229700991</v>
+        <v>0.08850648216701468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N5">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O5">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P5">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q5">
-        <v>406.5955777278354</v>
+        <v>51.84054477965078</v>
       </c>
       <c r="R5">
-        <v>3659.360199550519</v>
+        <v>466.564903016857</v>
       </c>
       <c r="S5">
-        <v>0.08039970603991337</v>
+        <v>0.02340773240381746</v>
       </c>
       <c r="T5">
-        <v>0.08039970603991335</v>
+        <v>0.02340773240381746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>368.169731</v>
       </c>
       <c r="O6">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P6">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q6">
         <v>341.6646602645874</v>
       </c>
       <c r="R6">
-        <v>3074.981942381287</v>
+        <v>3074.981942381286</v>
       </c>
       <c r="S6">
-        <v>0.06756034682671151</v>
+        <v>0.1542729725026732</v>
       </c>
       <c r="T6">
-        <v>0.06756034682671151</v>
+        <v>0.1542729725026732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N7">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O7">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P7">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q7">
-        <v>87.92487588261335</v>
+        <v>91.79269675707378</v>
       </c>
       <c r="R7">
-        <v>791.3238829435202</v>
+        <v>826.134270813664</v>
       </c>
       <c r="S7">
-        <v>0.01738615607691109</v>
+        <v>0.04144745954054421</v>
       </c>
       <c r="T7">
-        <v>0.01738615607691109</v>
+        <v>0.04144745954054421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H8">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.0459156666666</v>
+        <v>18.62071366666667</v>
       </c>
       <c r="N8">
-        <v>438.1377469999999</v>
+        <v>55.862141</v>
       </c>
       <c r="O8">
-        <v>0.4862506770104965</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="P8">
-        <v>0.4862506770104964</v>
+        <v>0.1068221077965325</v>
       </c>
       <c r="Q8">
-        <v>946.4580048195323</v>
+        <v>74.03605064223501</v>
       </c>
       <c r="R8">
-        <v>8518.12204337579</v>
+        <v>666.324455780115</v>
       </c>
       <c r="S8">
-        <v>0.1871514338445395</v>
+        <v>0.03342974247348543</v>
       </c>
       <c r="T8">
-        <v>0.1871514338445395</v>
+        <v>0.03342974247348543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H9">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>368.169731</v>
       </c>
       <c r="O9">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="P9">
-        <v>0.408599309644787</v>
+        <v>0.7040307798496723</v>
       </c>
       <c r="Q9">
-        <v>795.3142394672603</v>
+        <v>487.948230434885</v>
       </c>
       <c r="R9">
-        <v>7157.828155205343</v>
+        <v>4391.534073913965</v>
       </c>
       <c r="S9">
-        <v>0.1572644528498212</v>
+        <v>0.2203248760884837</v>
       </c>
       <c r="T9">
-        <v>0.1572644528498212</v>
+        <v>0.2203248760884837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H10">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.58192</v>
+        <v>32.97121066666667</v>
       </c>
       <c r="N10">
-        <v>94.74576</v>
+        <v>98.91363200000001</v>
       </c>
       <c r="O10">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="P10">
-        <v>0.1051500133447165</v>
+        <v>0.1891471123537951</v>
       </c>
       <c r="Q10">
-        <v>204.66824323792</v>
+        <v>131.09369846672</v>
       </c>
       <c r="R10">
-        <v>1842.01418914128</v>
+        <v>1179.84328620048</v>
       </c>
       <c r="S10">
-        <v>0.04047084497079549</v>
+        <v>0.0591931706462362</v>
       </c>
       <c r="T10">
-        <v>0.04047084497079549</v>
+        <v>0.05919317064623619</v>
       </c>
     </row>
   </sheetData>
